--- a/char descriptions.xlsx
+++ b/char descriptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dayne Helbano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Documents\FV-Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Character names</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Prideful Worm</t>
   </si>
   <si>
-    <t>Beetle 1</t>
-  </si>
-  <si>
     <t>Beetle 2</t>
   </si>
   <si>
@@ -228,18 +225,12 @@
     <t>just keep flying</t>
   </si>
   <si>
-    <t>Cicadas love leeks they eat them two times faster</t>
-  </si>
-  <si>
     <t>Snails eats Slow Except for carrots and onions they love them.</t>
   </si>
   <si>
     <t>They fairly likes all the fruits and vegetables.</t>
   </si>
   <si>
-    <t>"All You need is love" - 1967</t>
-  </si>
-  <si>
     <t>Surprise Surprise</t>
   </si>
   <si>
@@ -271,13 +262,34 @@
   </si>
   <si>
     <t>Hop hop hop, Mr. grasshopper hop.</t>
+  </si>
+  <si>
+    <t>boss caterpillar</t>
+  </si>
+  <si>
+    <t>boss fly</t>
+  </si>
+  <si>
+    <t>One of the most mispronounced insects in the game.</t>
+  </si>
+  <si>
+    <t>He is also called Beetle 1.</t>
+  </si>
+  <si>
+    <t>boss grasshopper</t>
+  </si>
+  <si>
+    <t>There's never a small fly.</t>
+  </si>
+  <si>
+    <t>Looks like Mr. Hopper got a little tanned.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +320,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -344,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +397,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="120.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -690,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -698,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -714,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -738,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -746,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -754,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -762,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,7 +795,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -792,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -800,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,7 +833,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -816,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,7 +849,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -840,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -864,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,7 +897,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -880,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -896,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -904,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -920,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -928,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -936,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -944,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +982,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -965,56 +990,75 @@
         <v>37</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/char descriptions.xlsx
+++ b/char descriptions.xlsx
@@ -225,12 +225,6 @@
     <t>just keep flying</t>
   </si>
   <si>
-    <t>Snails eats Slow Except for carrots and onions they love them.</t>
-  </si>
-  <si>
-    <t>They fairly likes all the fruits and vegetables.</t>
-  </si>
-  <si>
     <t>Surprise Surprise</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Looks like Mr. Hopper got a little tanned.</t>
+  </si>
+  <si>
+    <t>I'm a Slowpoke. Yep, no one cares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They say i'm ugly. Just wait after my metamorphosis! </t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,23 +990,23 @@
         <v>37</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1014,15 +1014,15 @@
         <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/char descriptions.xlsx
+++ b/char descriptions.xlsx
@@ -237,12 +237,6 @@
     <t>John Lennon</t>
   </si>
   <si>
-    <t>Pete Best</t>
-  </si>
-  <si>
-    <t>His Pride exceeds the limits for a worm</t>
-  </si>
-  <si>
     <t>This Mice aint that NICE</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">They say i'm ugly. Just wait after my metamorphosis! </t>
+  </si>
+  <si>
+    <t>His Pride exceeds the limits for a worm.</t>
+  </si>
+  <si>
+    <t>I'm beautiful enough even without metamorphosis</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,23 +990,23 @@
         <v>37</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1014,15 +1014,15 @@
         <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/char descriptions.xlsx
+++ b/char descriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4545"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,18 +261,9 @@
     <t>One of the most mispronounced insects in the game.</t>
   </si>
   <si>
-    <t>He is also called Beetle 1.</t>
-  </si>
-  <si>
-    <t>boss grasshopper</t>
-  </si>
-  <si>
     <t>There's never a small fly.</t>
   </si>
   <si>
-    <t>Looks like Mr. Hopper got a little tanned.</t>
-  </si>
-  <si>
     <t>I'm a Slowpoke. Yep, no one cares.</t>
   </si>
   <si>
@@ -283,6 +274,15 @@
   </si>
   <si>
     <t>I'm beautiful enough even without metamorphosis</t>
+  </si>
+  <si>
+    <t>Beetle 1</t>
+  </si>
+  <si>
+    <t>Hey Jude.</t>
+  </si>
+  <si>
+    <t>The first born of the Beetle brothers.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
     </row>
     <row r="42" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>75</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/char descriptions.xlsx
+++ b/char descriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Character names</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Fruits &amp; Vegetables</t>
   </si>
   <si>
-    <t>King Guava</t>
-  </si>
-  <si>
-    <t>Queen Bittergourd</t>
-  </si>
-  <si>
     <t>Carrot</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Pests/Insects</t>
   </si>
   <si>
-    <t>Insect Queen (Angela)</t>
-  </si>
-  <si>
     <t>Ants</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t xml:space="preserve"> Description</t>
   </si>
   <si>
-    <t>King Guava is so  Guavable(Loveable) two queens from different got a crush on him.</t>
-  </si>
-  <si>
     <t>"ba ba ba ba ba nana"</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t xml:space="preserve">the Fruitties and Veggies are going Bananas over the heals </t>
   </si>
   <si>
-    <t>WaterMelon got some big seeds to talk about !</t>
-  </si>
-  <si>
     <t>This is the saucer that you cant eat !</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>Mega Cry!</t>
   </si>
   <si>
-    <t>A legendary web developer.</t>
-  </si>
-  <si>
     <t>This queen can get so INSECTcure sometimes !</t>
   </si>
   <si>
@@ -283,6 +265,9 @@
   </si>
   <si>
     <t>The first born of the Beetle brothers.</t>
+  </si>
+  <si>
+    <t>This dude  got some big seeds to talk about !</t>
   </si>
 </sst>
 </file>
@@ -686,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -711,161 +696,153 @@
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -874,187 +851,183 @@
     </row>
     <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
